--- a/biology/Botanique/Hermann_Theodor_Geyler/Hermann_Theodor_Geyler.xlsx
+++ b/biology/Botanique/Hermann_Theodor_Geyler/Hermann_Theodor_Geyler.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hermann Theodor Geyler est un paléobotaniste et un botaniste saxon-vimarois-isenacois, né le 15 janvier 1835 à Schwarzbach près de Gera et mort le 22 mars 1889 à Francfort-sur-le-Main.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils d’Hermann Gustav et d’Adelgunde Schiller née von Schillershausen. Il étudie la botanique à Leipzig et à Iéna de 1857 à 1861. Il obtient son doctorat en 1860. De 1864 à 1867, il travaille auprès de Carl Eduard Cramer (1831-1901) à Bâle. De 1867 à 1889, il est professeur à l’Institut de médecine Senckenberg à Francfort-sur-le-Main. Il se marie en 1871 avec Anna Thezresia Krahmer dont il aura un fils. Il est le deuxième directeur de la Société d’histoire naturelle Senckenberg de 1873 à 1875 et de 1877 à 1879.
 Geyler est notamment l’auteur de Über fossile Pflanzen aus Borneo (1875), l’une des plus anciennes recherches sur les végétaux fossiles tropicaux.
